--- a/QuantLibAddin2/Clients/CountifyExcel/EquityOption.xlsx
+++ b/QuantLibAddin2/Clients/CountifyExcel/EquityOption.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>today's date</t>
-  </si>
-  <si>
-    <t>set global evaluation date</t>
   </si>
   <si>
     <t>settlement date</t>
@@ -543,7 +540,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="9" t="e">
         <f ca="1">_xll.cfyql_Version()</f>
@@ -569,47 +566,48 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
-        <v>35930</v>
+      <c r="B4" s="3" t="e">
+        <f ca="1">_xll.cfyql_SettingsEvaluationDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>35932</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="e">
+        <f ca="1">B4+2</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="e">
-        <f ca="1">_xll.cfyql_SettingsSetEvaluationDate(B4)</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -617,266 +615,259 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B12" s="6">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="e">
+        <f ca="1">DATE(YEAR(B4)+1,MONTH(B4),DAY(B4))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>36297</v>
-      </c>
-      <c r="C14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="e">
+        <f ca="1">_xll.cfyql_EuropeanExercise(B16,B13)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="e">
-        <f ca="1">_xll.cfyql_EuropeanExercise(B17,B14)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
+      <c r="B20" s="5" t="e">
+        <f ca="1">_xll.cfyql_SimpleQuote(B19,B8)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="e">
-        <f ca="1">_xll.cfyql_SimpleQuote(B20,B9)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
+      <c r="B23" s="3" t="e">
+        <f ca="1">_xll.cfyql_FlatForward(B22,B5,B11,B14)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3" t="e">
-        <f ca="1">_xll.cfyql_FlatForward(B23,B5,B12,B15)</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="e">
+        <f ca="1">_xll.cfyql_FlatForward(B25,B5,B10,B14)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3" t="e">
-        <f ca="1">_xll.cfyql_FlatForward(B26,B5,B11,B15)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="e">
+        <f ca="1">_xll.cfyql_BlackConstantVol(B28,B5,B3,B12,B14)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3" t="e">
-        <f ca="1">_xll.cfyql_BlackConstantVol(B29,B5,B3,B13,B15)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
+      <c r="B31" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="3" t="e">
+        <f ca="1">_xll.cfyql_BlackScholesMertonProcess(B31,B20,B25,B22,B28)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="3" t="e">
-        <f ca="1">_xll.cfyql_BlackScholesMertonProcess(B32,B21,B26,B23,B29)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="e">
+        <f ca="1">_xll.cfyql_PlainVanillaPayoff(B34,B7,B9)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="3" t="e">
-        <f ca="1">_xll.cfyql_PlainVanillaPayoff(B35,B8,B10)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="e">
+        <f ca="1">_xll.cfyql_VanillaOption(B37,B35,B17)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3" t="e">
-        <f ca="1">_xll.cfyql_VanillaOption(B38,B36,B18)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="B41" s="3" t="e">
+        <f ca="1">_xll.cfyql_AnalyticEuropeanEngine(B40,B32)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="3" t="e">
-        <f ca="1">_xll.cfyql_AnalyticEuropeanEngine(B41,B33)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="B43" s="3" t="e">
+        <f ca="1">_xll.cfyql_InstrumentSetPricingEngine(B38,B41)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="3" t="e">
-        <f ca="1">_xll.cfyql_InstrumentSetPricingEngine(B39,B42)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="1" t="e">
-        <f ca="1">_xll.cfyql_InstrumentNPV(B39,B44)</f>
+      <c r="B45" s="1" t="e">
+        <f ca="1">_xll.cfyql_InstrumentNPV(B38,B43)</f>
         <v>#NAME?</v>
       </c>
     </row>
